--- a/DocOne.xlsx
+++ b/DocOne.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zboukhris\Desktop\ZLearn\RandomFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zboukhris\Desktop\ZLearn\GitTESTS\TEST_1\FilesRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3D2EF-0AE4-4097-9FF3-01EB6D2C32E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F6F065-4CD1-4CC5-8B73-0989A82B9060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>TEST 1²</t>
   </si>
   <si>
     <t>BoukhrisZa</t>
+  </si>
+  <si>
+    <t>TEST 2</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -364,6 +367,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocOne.xlsx
+++ b/DocOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zboukhris\Desktop\ZLearn\GitTESTS\TEST_1\FilesRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F6F065-4CD1-4CC5-8B73-0989A82B9060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1D516F-1A35-41DA-A76D-DB8C1DA48E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>TEST 1²</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>TEST 2</t>
+  </si>
+  <si>
+    <t>TEST 3</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,6 +378,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocOne.xlsx
+++ b/DocOne.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zboukhris\Desktop\ZLearn\GitTESTS\TEST_1\FilesRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zboukhris\Desktop\ZLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1D516F-1A35-41DA-A76D-DB8C1DA48E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED69B55-FD7F-4898-A00A-EEB388C475F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>TEST 1²</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>TEST 3</t>
+  </si>
+  <si>
+    <t>TEST 44</t>
+  </si>
+  <si>
+    <t>TEST 55</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,6 +392,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocOne.xlsx
+++ b/DocOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zboukhris\Desktop\ZLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED69B55-FD7F-4898-A00A-EEB388C475F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCEE8B-C481-4095-800E-4F6DE7551254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>TEST 1²</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>TEST 55</t>
+  </si>
+  <si>
+    <t>TEST 6</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,6 +411,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocOne.xlsx
+++ b/DocOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zboukhris\Desktop\ZLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCEE8B-C481-4095-800E-4F6DE7551254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF74F7B-C858-4111-B2CB-44963608813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>TEST 1²</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>TEST 6</t>
+  </si>
+  <si>
+    <t>TEST 7</t>
+  </si>
+  <si>
+    <t>TEST7</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,6 +425,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
